--- a/spec/fixtures/dropbox/example_batch_ingest/no_files.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/no_files.xlsx
@@ -5,85 +5,99 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>No Files</t>
-  </si>
-  <si>
-    <t>frances.dickens@reichel.com</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Topical Subject</t>
-  </si>
-  <si>
-    <t>Geographic Subject</t>
-  </si>
-  <si>
-    <t>Temporal Subject</t>
-  </si>
-  <si>
-    <t>Publish</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Skip Transcoding</t>
-  </si>
-  <si>
-    <t>Absolute Location</t>
-  </si>
-  <si>
-    <t>Test Batch - no file 1</t>
-  </si>
-  <si>
-    <t>Test Batch - no file 2</t>
-  </si>
-  <si>
-    <t>Julie Hardesty</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">No Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frances.dickens@reichel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topical Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographic Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip Transcoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Batch - no file 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Batch - no file 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie Hardesty</t>
   </si>
 </sst>
 </file>
@@ -91,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -134,21 +148,21 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thick"/>
       <top/>
@@ -157,67 +171,67 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -227,31 +241,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.5348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.0046511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.5348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4976744186047"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.8232558139535"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="10.5348837209302"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.9953488372093"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.8325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.6814814814815"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -261,7 +275,7 @@
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -316,30 +330,48 @@
       <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="S2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="S3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2014</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/spec/fixtures/dropbox/example_batch_ingest/no_files.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/no_files.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">No Files</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviation</t>
   </si>
   <si>
     <t xml:space="preserve">Test Batch - no file 2</t>
@@ -241,28 +244,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:T4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,6 +339,9 @@
       <c r="T2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="U2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -350,13 +356,16 @@
       <c r="T3" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="U3" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2014</v>
@@ -366,6 +375,9 @@
       </c>
       <c r="T4" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
